--- a/examples/tecan_spark_example.xlsx
+++ b/examples/tecan_spark_example.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LabUser\Desktop\Stephen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abelgurung/Desktop/project/microplateParser/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0DFC3B-6ADC-0E44-9626-B5BBB626FE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16140" windowHeight="5325"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29700" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result sheet" sheetId="1" r:id="rId1"/>
@@ -213,8 +214,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -223,11 +224,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -261,11 +264,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,14 +548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:M34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +574,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,7 +591,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -603,7 +608,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -620,7 +625,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -637,7 +642,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -654,7 +659,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -671,7 +676,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -688,7 +693,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -705,7 +710,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -722,7 +727,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -739,7 +744,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -756,7 +761,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -773,7 +778,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -786,7 +791,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -801,7 +806,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -816,7 +821,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>25</v>
@@ -833,7 +838,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -846,7 +851,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -863,7 +868,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -878,7 +883,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -895,7 +900,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -908,7 +913,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -925,7 +930,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -942,7 +947,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -959,7 +964,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -976,7 +981,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -993,7 +998,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1010,7 +1015,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1023,7 +1028,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
@@ -1040,7 +1045,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1057,7 +1062,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1070,7 +1075,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -1111,48 +1116,24 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="1">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="C34" s="1">
-        <v>6.5500000000000003E-2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>6.4699999999999994E-2</v>
-      </c>
-      <c r="E34" s="1">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="F34" s="1">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="G34" s="1">
-        <v>6.6600000000000006E-2</v>
-      </c>
-      <c r="H34" s="1">
-        <v>6.2300000000000001E-2</v>
-      </c>
-      <c r="I34" s="1">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="J34" s="1">
-        <v>6.4100000000000004E-2</v>
-      </c>
-      <c r="K34" s="1">
-        <v>6.2E-2</v>
-      </c>
-      <c r="L34" s="1">
-        <v>6.0600000000000001E-2</v>
-      </c>
-      <c r="M34" s="1">
-        <v>7.1900000000000006E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>54</v>
       </c>
@@ -1193,7 +1174,7 @@
         <v>0.17530000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>55</v>
       </c>
@@ -1234,7 +1215,7 @@
         <v>0.17030000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>56</v>
       </c>
@@ -1275,7 +1256,7 @@
         <v>7.1599999999999997E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>57</v>
       </c>
@@ -1316,7 +1297,7 @@
         <v>6.4699999999999994E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>58</v>
       </c>
@@ -1357,7 +1338,7 @@
         <v>6.6100000000000006E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>59</v>
       </c>
@@ -1398,7 +1379,7 @@
         <v>6.2399999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>60</v>
       </c>
@@ -1439,7 +1420,7 @@
         <v>6.1400000000000003E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1452,7 +1433,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1465,7 +1446,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -1482,7 +1463,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1495,7 +1476,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
